--- a/CSEReal2022.xlsx
+++ b/CSEReal2022.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">National University of Singapore</t>
   </si>
   <si>
-    <t xml:space="preserve">University of California, Los Angeles</t>
+    <t xml:space="preserve">University of California Los Angeles</t>
   </si>
   <si>
     <t xml:space="preserve">University of Toronto</t>
@@ -301,11 +301,11 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B61" activeCellId="0" sqref="B61:G61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V23" activeCellId="0" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.67"/>
   </cols>

--- a/CSEReal2022.xlsx
+++ b/CSEReal2022.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Columbia University</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Electronic Science and Technology of China</t>
+    <t xml:space="preserve">University of Electronic Science &amp; Technology of China</t>
   </si>
   <si>
     <t xml:space="preserve">National University of Singapore</t>
@@ -79,10 +79,10 @@
     <t xml:space="preserve">Peking University</t>
   </si>
   <si>
-    <t xml:space="preserve">The Chinese University of Hong Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huazhong University of Science and Technology</t>
+    <t xml:space="preserve">Chinese University of Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huazhong University of Science &amp; Technology</t>
   </si>
   <si>
     <t xml:space="preserve">Cornell University</t>
@@ -112,34 +112,34 @@
     <t xml:space="preserve">University of Oslo</t>
   </si>
   <si>
-    <t xml:space="preserve">The University of Edinburgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Science and Technology of China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Montreal</t>
+    <t xml:space="preserve">University of Edinburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Science &amp; Technology of China, CAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universite de Montreal</t>
   </si>
   <si>
     <t xml:space="preserve">City University of Hong Kong</t>
   </si>
   <si>
-    <t xml:space="preserve">The University of Texas at Austin</t>
+    <t xml:space="preserve">University of Texas Austin</t>
   </si>
   <si>
     <t xml:space="preserve">University College London</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Washington</t>
+    <t xml:space="preserve">University of Washington Seattle</t>
   </si>
   <si>
     <t xml:space="preserve">Imperial College London</t>
   </si>
   <si>
-    <t xml:space="preserve">Sun Yat-sen University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southeast University</t>
+    <t xml:space="preserve">Sun Yat Sen University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast University – China</t>
   </si>
   <si>
     <t xml:space="preserve">Tianjin University</t>
@@ -148,28 +148,28 @@
     <t xml:space="preserve">Northwestern Polytechnical University</t>
   </si>
   <si>
-    <t xml:space="preserve">University of North Carolina at Chapel Hill</t>
+    <t xml:space="preserve">University of North Carolina Chapel Hill</t>
   </si>
   <si>
     <t xml:space="preserve">The Hong Kong Polytechnic University</t>
   </si>
   <si>
-    <t xml:space="preserve">Beijing University of Posts and Telecommunications</t>
+    <t xml:space="preserve">Beijing University of Posts &amp; Telecommunications</t>
   </si>
   <si>
     <t xml:space="preserve">Wuhan University</t>
   </si>
   <si>
-    <t xml:space="preserve">The Hong Kong University of Science and Technology</t>
+    <t xml:space="preserve">Hong Kong University of Science &amp; Technology</t>
   </si>
   <si>
     <t xml:space="preserve">Dalian University of Technology</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Michigan-Ann Arbor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The University of Adelaide</t>
+    <t xml:space="preserve">University of Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Adelaide</t>
   </si>
   <si>
     <t xml:space="preserve">Aalto University</t>
@@ -193,16 +193,16 @@
     <t xml:space="preserve">Nanjing University</t>
   </si>
   <si>
-    <t xml:space="preserve">Nanjing University of Science and Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National University of Defense Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeastern University (Shenyang)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris-Saclay University</t>
+    <t xml:space="preserve">Nanjing University of Science &amp; Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National University of Defense Technology – China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeastern University – China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universite Paris Saclay</t>
   </si>
 </sst>
 </file>
@@ -302,12 +302,12 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V23" activeCellId="0" sqref="V23"/>
+      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/CSEReal2022.xlsx
+++ b/CSEReal2022.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Stanford University</t>
   </si>
   <si>
-    <t xml:space="preserve">University of California, Berkeley</t>
+    <t xml:space="preserve">University of California Berkeley</t>
   </si>
   <si>
     <t xml:space="preserve">Carnegie Mellon University</t>
@@ -302,10 +302,10 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
+      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.82"/>
   </cols>
